--- a/brokers_data.xlsx
+++ b/brokers_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>rating</t>
+          <t>company</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>propertyForSale</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>propertyForRent</t>
+          <t>propertyType</t>
         </is>
       </c>
     </row>
@@ -463,17 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>16 Ratings</t>
+          <t>Golden Wave Properties</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4 Properties for Rent</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4 Properties for Rent</t>
+          <t>['Apartment', 'Office Space', 'Villa']</t>
         </is>
       </c>
     </row>
@@ -485,17 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>21 Ratings</t>
+          <t>White &amp; Co Real Estate</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>37 Properties for Rent</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>37 Properties for Rent</t>
+          <t>['Apartment']</t>
         </is>
       </c>
     </row>
@@ -507,17 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>19 Ratings</t>
+          <t>Luxfolio Real Estate Brokers LLC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>49 Properties for Rent</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>49 Properties for Rent</t>
+          <t>['Apartment']</t>
         </is>
       </c>
     </row>
@@ -529,17 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7 Ratings</t>
+          <t>METROPOLITAN CAPITAL REAL ESTATE - SOLE PROPRIETORSHIP L.L.C.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1 Properties for Rent</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1 Properties for Rent</t>
+          <t>['Apartment', 'Townhouse', 'Villa']</t>
         </is>
       </c>
     </row>
@@ -551,17 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>50 Ratings</t>
+          <t>Probima Centre FZ-LLC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13 Properties for Rent</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>13 Properties for Rent</t>
+          <t>['Apartment']</t>
         </is>
       </c>
     </row>
@@ -573,17 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9 Ratings</t>
+          <t>Betterhomes - Abu Dhabi</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5 Properties for Rent</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5 Properties for Rent</t>
+          <t>['Apartment', 'Townhouse']</t>
         </is>
       </c>
     </row>
@@ -595,17 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14 Ratings</t>
+          <t>Realty Real Estate</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>55 Properties for Sale</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>55 Properties for Sale</t>
+          <t>['Apartment']</t>
         </is>
       </c>
     </row>
@@ -617,17 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7 Ratings</t>
+          <t>Henry Wiltshire International</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1 Properties for Rent</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1 Properties for Rent</t>
+          <t>['Apartment']</t>
         </is>
       </c>
     </row>
@@ -639,17 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9 Ratings</t>
+          <t>Pacific Homes FZ-LLC</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>41 Properties for Rent</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>41 Properties for Rent</t>
+          <t>['Apartment']</t>
         </is>
       </c>
     </row>
@@ -661,17 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13 Ratings</t>
+          <t>Allsopp &amp; Allsopp - Jumeirah Golf Estates</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>6 Properties for Sale</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6 Properties for Sale</t>
+          <t>['Townhouse', 'Villa']</t>
         </is>
       </c>
     </row>
@@ -683,17 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4 Ratings</t>
+          <t>Edwards and Towers Real Estate Brokers</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15 Properties for Sale</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>15 Properties for Sale</t>
+          <t>['Apartment', 'Villa']</t>
         </is>
       </c>
     </row>
@@ -705,17 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3 Ratings</t>
+          <t>Espace Real Estate</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5 Properties for Sale</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5 Properties for Sale</t>
+          <t>['Townhouse', 'Villa']</t>
         </is>
       </c>
     </row>
@@ -727,17 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8 Ratings</t>
+          <t>National Homes</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>18 Properties for Rent</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>18 Properties for Rent</t>
+          <t>['Apartment']</t>
         </is>
       </c>
     </row>
@@ -749,17 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3 Ratings</t>
+          <t>McCone Properties</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6 Properties for Rent</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>6 Properties for Rent</t>
+          <t>['Apartment']</t>
         </is>
       </c>
     </row>
@@ -771,17 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>14 Ratings</t>
+          <t>Mirabella Properties</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6 Properties for Rent</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6 Properties for Rent</t>
+          <t>['Townhouse', 'Villa']</t>
         </is>
       </c>
     </row>
@@ -793,17 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4 Ratings</t>
+          <t>Al Hilal Property</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10 Properties for Rent</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>10 Properties for Rent</t>
+          <t>['Apartment']</t>
         </is>
       </c>
     </row>
@@ -815,17 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8 Ratings</t>
+          <t>Edge Realty Real Estate</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>11 Properties for Rent</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>11 Properties for Rent</t>
+          <t>['Apartment']</t>
         </is>
       </c>
     </row>
@@ -837,17 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5 Ratings</t>
+          <t>McCone Properties</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>11 Properties for Rent</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>11 Properties for Rent</t>
+          <t>['Apartment']</t>
         </is>
       </c>
     </row>
@@ -859,17 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7 Ratings</t>
+          <t>Jade &amp; Co Real Estate</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2 Properties for Rent</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2 Properties for Rent</t>
+          <t>['Villa']</t>
         </is>
       </c>
     </row>
@@ -881,17 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2 Ratings</t>
+          <t>Croswell Real Estate</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3 Properties for Rent</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3 Properties for Rent</t>
+          <t>['Townhouse', 'Villa']</t>
         </is>
       </c>
     </row>

--- a/brokers_data.xlsx
+++ b/brokers_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Apartment', 'Office Space', 'Villa']</t>
+          <t>['Apartment', 'Villa', 'Office Space']</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['Apartment', 'Townhouse', 'Villa']</t>
+          <t>['Townhouse', 'Villa', 'Apartment']</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['Townhouse', 'Villa']</t>
+          <t>['Villa', 'Townhouse']</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['Townhouse', 'Villa']</t>
+          <t>['Villa', 'Townhouse']</t>
         </is>
       </c>
     </row>
@@ -787,6 +787,91 @@
       <c r="C21" t="inlineStr">
         <is>
           <t>['Townhouse', 'Villa']</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Benjamin John Baker</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Edwards and Towers Real Estate Brokers</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>['Apartment', 'Villa']</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Alber Thabet</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TOP APARTMENTS REAL ESTATE BROKERAGE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>['Apartment']</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Christopher Timoney</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Savills Dubai</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>['Villa']</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Darren Collins</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Treo Homes</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>['Villa']</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Lorenzo Cross</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Strada</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>['Apartment', 'Villa']</t>
         </is>
       </c>
     </row>
